--- a/Inputs/IATI returns/R4D Award Data August 2021.xlsx
+++ b/Inputs/IATI returns/R4D Award Data August 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e-clegg\OneDrive - DFID\PROJECT - MODARI\2. Awards\IATI\External partner data\2 - Completed returns\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wellcomecloud-my.sharepoint.com/personal/e_clegg_ukcds_org_uk/Documents/My Documents/GitHub/ODA_research_and_innovation/Inputs/IATI returns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B1E94-7F96-4032-A2C4-44D920C735FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{FA9B1E94-7F96-4032-A2C4-44D920C735FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{8CD8DD36-DB5B-4433-8BD4-3CDBA06ADB27}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1185" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scope and Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -904,9 +903,6 @@
     <t>Foreign, Commonwealth and Development Office</t>
   </si>
   <si>
-    <t>FCDO fully funded</t>
-  </si>
-  <si>
     <t>Funder programme - name</t>
   </si>
   <si>
@@ -1121,6 +1117,9 @@
   </si>
   <si>
     <t>US-EIN-20-8530747-70</t>
+  </si>
+  <si>
+    <t>FCDO Research - Programmes</t>
   </si>
 </sst>
 </file>
@@ -1537,14 +1536,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="119.83203125" customWidth="1"/>
-    <col min="4" max="4" width="8.58203125" customWidth="1"/>
-    <col min="5" max="5" width="24.75" customWidth="1"/>
-    <col min="6" max="6" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="39.296875" customWidth="1"/>
+    <col min="3" max="3" width="119.796875" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" customWidth="1"/>
+    <col min="5" max="5" width="24.69921875" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1">
@@ -1552,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14">
+    <row r="3" spans="1:26" ht="13.8">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1583,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="14">
+    <row r="4" spans="1:26" ht="13.8">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1612,7 +1611,7 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="14">
+    <row r="5" spans="1:26" ht="13.8">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1642,7 +1641,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="14">
+    <row r="6" spans="1:26" ht="13.8">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1672,7 +1671,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="14">
+    <row r="7" spans="1:26" ht="13.8">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1701,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="14">
+    <row r="8" spans="1:26" ht="13.8">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1732,7 +1731,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="14">
+    <row r="9" spans="1:26" ht="13.8">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2939,37 +2938,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="7.08203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.09765625" style="10" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="92.75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="23.796875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="92.69921875" style="10" customWidth="1"/>
     <col min="5" max="5" width="21" style="10" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="27.296875" style="10" customWidth="1"/>
     <col min="7" max="7" width="26.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="89.33203125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="75.08203125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.58203125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.75" style="10" customWidth="1"/>
+    <col min="8" max="8" width="89.296875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="75.09765625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" style="10" customWidth="1"/>
+    <col min="11" max="11" width="11.69921875" style="10" customWidth="1"/>
     <col min="12" max="12" width="23.5" style="10" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="20.296875" style="10" customWidth="1"/>
     <col min="14" max="14" width="25" style="10" customWidth="1"/>
-    <col min="15" max="15" width="24.08203125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="29.08203125" style="10" customWidth="1"/>
-    <col min="17" max="17" width="29.33203125" style="10" customWidth="1"/>
-    <col min="18" max="18" width="15.08203125" style="10" customWidth="1"/>
-    <col min="19" max="16384" width="12.58203125" style="10"/>
+    <col min="15" max="15" width="24.09765625" style="10" customWidth="1"/>
+    <col min="16" max="16" width="29.09765625" style="10" customWidth="1"/>
+    <col min="17" max="17" width="29.296875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="15.09765625" style="10" customWidth="1"/>
+    <col min="19" max="16384" width="12.59765625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="28">
+    <row r="1" spans="1:18" ht="27.6">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
@@ -2980,10 +2976,10 @@
         <v>279</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>283</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>15</v>
@@ -3033,7 +3029,7 @@
         <v>280</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -3045,7 +3041,7 @@
         <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H2" t="s">
         <v>46</v>
@@ -3072,7 +3068,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:18" customFormat="1" hidden="1">
+    <row r="3" spans="1:18" customFormat="1">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3080,7 +3076,7 @@
         <v>280</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -3092,7 +3088,7 @@
         <v>50</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>51</v>
@@ -3127,7 +3123,7 @@
         <v>280</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -3139,7 +3135,7 @@
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H4" t="s">
         <v>55</v>
@@ -3174,7 +3170,7 @@
         <v>280</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -3186,7 +3182,7 @@
         <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H5" t="s">
         <v>59</v>
@@ -3221,7 +3217,7 @@
         <v>280</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
@@ -3233,7 +3229,7 @@
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H6" t="s">
         <v>63</v>
@@ -3268,7 +3264,7 @@
         <v>280</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
@@ -3280,7 +3276,7 @@
         <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H7" t="s">
         <v>68</v>
@@ -3315,7 +3311,7 @@
         <v>280</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
@@ -3327,7 +3323,7 @@
         <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H8" t="s">
         <v>72</v>
@@ -3354,7 +3350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:18" customFormat="1" hidden="1">
+    <row r="9" spans="1:18" customFormat="1">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3362,7 +3358,7 @@
         <v>280</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -3374,7 +3370,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H9" t="s">
         <v>76</v>
@@ -3401,7 +3397,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:18" customFormat="1" hidden="1">
+    <row r="10" spans="1:18" customFormat="1">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3409,7 +3405,7 @@
         <v>280</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -3421,7 +3417,7 @@
         <v>50</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H10" t="s">
         <v>79</v>
@@ -3448,7 +3444,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:18" customFormat="1" hidden="1">
+    <row r="11" spans="1:18" customFormat="1">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3456,7 +3452,7 @@
         <v>280</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -3468,7 +3464,7 @@
         <v>50</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H11" t="s">
         <v>83</v>
@@ -3495,7 +3491,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:18" customFormat="1" hidden="1">
+    <row r="12" spans="1:18" customFormat="1">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3503,7 +3499,7 @@
         <v>280</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
@@ -3515,7 +3511,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H12" t="s">
         <v>87</v>
@@ -3550,7 +3546,7 @@
         <v>280</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
@@ -3562,7 +3558,7 @@
         <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H13" t="s">
         <v>91</v>
@@ -3589,7 +3585,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:18" customFormat="1" hidden="1">
+    <row r="14" spans="1:18" customFormat="1">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3597,7 +3593,7 @@
         <v>280</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
@@ -3609,7 +3605,7 @@
         <v>50</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H14" t="s">
         <v>94</v>
@@ -3636,7 +3632,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:18" customFormat="1" hidden="1">
+    <row r="15" spans="1:18" customFormat="1">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3644,7 +3640,7 @@
         <v>280</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
@@ -3656,7 +3652,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H15" t="s">
         <v>97</v>
@@ -3683,7 +3679,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:18" customFormat="1" hidden="1">
+    <row r="16" spans="1:18" customFormat="1">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3691,7 +3687,7 @@
         <v>280</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
@@ -3703,7 +3699,7 @@
         <v>50</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H16" t="s">
         <v>101</v>
@@ -3738,7 +3734,7 @@
         <v>280</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -3750,7 +3746,7 @@
         <v>45</v>
       </c>
       <c r="G17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H17" t="s">
         <v>104</v>
@@ -3785,7 +3781,7 @@
         <v>280</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
@@ -3797,7 +3793,7 @@
         <v>45</v>
       </c>
       <c r="G18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H18" t="s">
         <v>106</v>
@@ -3832,7 +3828,7 @@
         <v>280</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
@@ -3844,7 +3840,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H19" t="s">
         <v>108</v>
@@ -3879,7 +3875,7 @@
         <v>280</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
@@ -3891,7 +3887,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H20" t="s">
         <v>112</v>
@@ -3926,7 +3922,7 @@
         <v>280</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
@@ -3938,7 +3934,7 @@
         <v>45</v>
       </c>
       <c r="G21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H21" t="s">
         <v>116</v>
@@ -3965,7 +3961,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:16" customFormat="1" hidden="1">
+    <row r="22" spans="1:16" customFormat="1">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3973,7 +3969,7 @@
         <v>280</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
@@ -3985,7 +3981,7 @@
         <v>50</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H22" t="s">
         <v>120</v>
@@ -4020,7 +4016,7 @@
         <v>280</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
@@ -4032,7 +4028,7 @@
         <v>45</v>
       </c>
       <c r="G23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H23" t="s">
         <v>123</v>
@@ -4059,7 +4055,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:16" customFormat="1" hidden="1">
+    <row r="24" spans="1:16" customFormat="1">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4067,7 +4063,7 @@
         <v>280</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
@@ -4079,7 +4075,7 @@
         <v>50</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H24" t="s">
         <v>126</v>
@@ -4114,7 +4110,7 @@
         <v>280</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
@@ -4126,7 +4122,7 @@
         <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H25" t="s">
         <v>130</v>
@@ -4161,7 +4157,7 @@
         <v>280</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
@@ -4173,7 +4169,7 @@
         <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H26" t="s">
         <v>133</v>
@@ -4200,7 +4196,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:16" customFormat="1" hidden="1">
+    <row r="27" spans="1:16" customFormat="1">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4208,7 +4204,7 @@
         <v>280</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
@@ -4220,7 +4216,7 @@
         <v>50</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H27" t="s">
         <v>136</v>
@@ -4255,7 +4251,7 @@
         <v>280</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D28" t="s">
         <v>43</v>
@@ -4267,7 +4263,7 @@
         <v>45</v>
       </c>
       <c r="G28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H28" t="s">
         <v>139</v>
@@ -4294,7 +4290,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:16" customFormat="1" hidden="1">
+    <row r="29" spans="1:16" customFormat="1">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4302,7 +4298,7 @@
         <v>280</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D29" t="s">
         <v>43</v>
@@ -4314,7 +4310,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H29" t="s">
         <v>141</v>
@@ -4349,7 +4345,7 @@
         <v>280</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
@@ -4361,7 +4357,7 @@
         <v>45</v>
       </c>
       <c r="G30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H30" t="s">
         <v>145</v>
@@ -4396,7 +4392,7 @@
         <v>280</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
@@ -4408,7 +4404,7 @@
         <v>45</v>
       </c>
       <c r="G31" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H31" t="s">
         <v>147</v>
@@ -4443,7 +4439,7 @@
         <v>280</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D32" t="s">
         <v>43</v>
@@ -4455,7 +4451,7 @@
         <v>45</v>
       </c>
       <c r="G32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H32" t="s">
         <v>150</v>
@@ -4493,7 +4489,7 @@
         <v>280</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D33" t="s">
         <v>43</v>
@@ -4505,7 +4501,7 @@
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H33" t="s">
         <v>156</v>
@@ -4540,7 +4536,7 @@
         <v>280</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
@@ -4552,7 +4548,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H34" t="s">
         <v>159</v>
@@ -4587,7 +4583,7 @@
         <v>280</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
@@ -4599,7 +4595,7 @@
         <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H35" t="s">
         <v>162</v>
@@ -4626,7 +4622,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:16" customFormat="1" hidden="1">
+    <row r="36" spans="1:16" customFormat="1">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4634,7 +4630,7 @@
         <v>280</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D36" t="s">
         <v>43</v>
@@ -4646,7 +4642,7 @@
         <v>50</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H36" t="s">
         <v>165</v>
@@ -4681,7 +4677,7 @@
         <v>280</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D37" t="s">
         <v>43</v>
@@ -4693,7 +4689,7 @@
         <v>45</v>
       </c>
       <c r="G37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H37" t="s">
         <v>169</v>
@@ -4720,7 +4716,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:16" customFormat="1" hidden="1">
+    <row r="38" spans="1:16" customFormat="1">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4728,7 +4724,7 @@
         <v>280</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
@@ -4740,7 +4736,7 @@
         <v>50</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H38" t="s">
         <v>172</v>
@@ -4775,7 +4771,7 @@
         <v>280</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D39" t="s">
         <v>43</v>
@@ -4787,7 +4783,7 @@
         <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H39" t="s">
         <v>175</v>
@@ -4814,7 +4810,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:16" customFormat="1" hidden="1">
+    <row r="40" spans="1:16" customFormat="1">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4822,7 +4818,7 @@
         <v>280</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
@@ -4834,7 +4830,7 @@
         <v>50</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H40" t="s">
         <v>178</v>
@@ -4869,7 +4865,7 @@
         <v>280</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -4881,7 +4877,7 @@
         <v>45</v>
       </c>
       <c r="G41" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H41" t="s">
         <v>181</v>
@@ -4916,7 +4912,7 @@
         <v>280</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D42" t="s">
         <v>43</v>
@@ -4928,7 +4924,7 @@
         <v>45</v>
       </c>
       <c r="G42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H42" t="s">
         <v>184</v>
@@ -4966,7 +4962,7 @@
         <v>280</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D43" t="s">
         <v>43</v>
@@ -4978,7 +4974,7 @@
         <v>45</v>
       </c>
       <c r="G43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H43" t="s">
         <v>189</v>
@@ -5005,7 +5001,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:16" customFormat="1" hidden="1">
+    <row r="44" spans="1:16" customFormat="1">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5013,7 +5009,7 @@
         <v>280</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
@@ -5025,7 +5021,7 @@
         <v>50</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H44" t="s">
         <v>192</v>
@@ -5060,7 +5056,7 @@
         <v>280</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D45" t="s">
         <v>43</v>
@@ -5072,7 +5068,7 @@
         <v>45</v>
       </c>
       <c r="G45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H45" t="s">
         <v>194</v>
@@ -5099,7 +5095,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:16" customFormat="1" hidden="1">
+    <row r="46" spans="1:16" customFormat="1">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5107,7 +5103,7 @@
         <v>280</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D46" t="s">
         <v>43</v>
@@ -5119,7 +5115,7 @@
         <v>50</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H46" t="s">
         <v>197</v>
@@ -5154,7 +5150,7 @@
         <v>280</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D47" t="s">
         <v>43</v>
@@ -5166,7 +5162,7 @@
         <v>45</v>
       </c>
       <c r="G47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H47" t="s">
         <v>200</v>
@@ -5201,7 +5197,7 @@
         <v>280</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D48" t="s">
         <v>43</v>
@@ -5213,7 +5209,7 @@
         <v>45</v>
       </c>
       <c r="G48" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H48" t="s">
         <v>203</v>
@@ -5248,7 +5244,7 @@
         <v>280</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D49" t="s">
         <v>43</v>
@@ -5260,7 +5256,7 @@
         <v>45</v>
       </c>
       <c r="G49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H49" t="s">
         <v>206</v>
@@ -5295,7 +5291,7 @@
         <v>280</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
@@ -5307,7 +5303,7 @@
         <v>45</v>
       </c>
       <c r="G50" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H50" t="s">
         <v>209</v>
@@ -5342,7 +5338,7 @@
         <v>280</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D51" t="s">
         <v>43</v>
@@ -5354,7 +5350,7 @@
         <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H51" t="s">
         <v>213</v>
@@ -5389,7 +5385,7 @@
         <v>280</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D52" t="s">
         <v>43</v>
@@ -5401,7 +5397,7 @@
         <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H52" t="s">
         <v>216</v>
@@ -5436,7 +5432,7 @@
         <v>280</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D53" t="s">
         <v>43</v>
@@ -5448,7 +5444,7 @@
         <v>45</v>
       </c>
       <c r="G53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H53" t="s">
         <v>219</v>
@@ -5483,7 +5479,7 @@
         <v>280</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D54" t="s">
         <v>43</v>
@@ -5495,7 +5491,7 @@
         <v>45</v>
       </c>
       <c r="G54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H54" t="s">
         <v>222</v>
@@ -5522,7 +5518,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:15" customFormat="1" hidden="1">
+    <row r="55" spans="1:15" customFormat="1">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5530,7 +5526,7 @@
         <v>280</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D55" t="s">
         <v>43</v>
@@ -5542,7 +5538,7 @@
         <v>50</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>226</v>
@@ -5577,7 +5573,7 @@
         <v>280</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D56" t="s">
         <v>43</v>
@@ -5589,7 +5585,7 @@
         <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H56" t="s">
         <v>230</v>
@@ -5624,7 +5620,7 @@
         <v>280</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D57" t="s">
         <v>43</v>
@@ -5636,7 +5632,7 @@
         <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H57" t="s">
         <v>233</v>
@@ -5663,7 +5659,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:15" customFormat="1" hidden="1">
+    <row r="58" spans="1:15" customFormat="1">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5671,7 +5667,7 @@
         <v>280</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D58" t="s">
         <v>43</v>
@@ -5683,7 +5679,7 @@
         <v>50</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H58" t="s">
         <v>237</v>
@@ -5710,7 +5706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:15" customFormat="1" hidden="1">
+    <row r="59" spans="1:15" customFormat="1">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5718,7 +5714,7 @@
         <v>280</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D59" t="s">
         <v>43</v>
@@ -5730,7 +5726,7 @@
         <v>50</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="H59" t="s">
         <v>240</v>
@@ -5757,7 +5753,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="60" spans="1:15" customFormat="1" hidden="1">
+    <row r="60" spans="1:15" customFormat="1">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5765,7 +5761,7 @@
         <v>280</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D60" t="s">
         <v>43</v>
@@ -5777,7 +5773,7 @@
         <v>50</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H60" t="s">
         <v>243</v>
@@ -5812,7 +5808,7 @@
         <v>280</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D61" t="s">
         <v>43</v>
@@ -5824,7 +5820,7 @@
         <v>45</v>
       </c>
       <c r="G61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H61" t="s">
         <v>246</v>
@@ -5859,7 +5855,7 @@
         <v>280</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D62" t="s">
         <v>43</v>
@@ -5871,7 +5867,7 @@
         <v>45</v>
       </c>
       <c r="G62" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H62" t="s">
         <v>249</v>
@@ -5906,7 +5902,7 @@
         <v>280</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D63" t="s">
         <v>43</v>
@@ -5918,7 +5914,7 @@
         <v>45</v>
       </c>
       <c r="G63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H63" t="s">
         <v>252</v>
@@ -5953,7 +5949,7 @@
         <v>280</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D64" t="s">
         <v>43</v>
@@ -5965,7 +5961,7 @@
         <v>45</v>
       </c>
       <c r="G64" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H64" t="s">
         <v>254</v>
@@ -5992,7 +5988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:15" customFormat="1" hidden="1">
+    <row r="65" spans="1:15" customFormat="1">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6000,7 +5996,7 @@
         <v>280</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D65" t="s">
         <v>43</v>
@@ -6012,7 +6008,7 @@
         <v>50</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H65" t="s">
         <v>257</v>
@@ -6039,7 +6035,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:15" customFormat="1" hidden="1">
+    <row r="66" spans="1:15" customFormat="1">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6047,7 +6043,7 @@
         <v>280</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D66" t="s">
         <v>43</v>
@@ -6059,7 +6055,7 @@
         <v>50</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H66" t="s">
         <v>260</v>
@@ -6094,7 +6090,7 @@
         <v>280</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D67" t="s">
         <v>43</v>
@@ -6106,7 +6102,7 @@
         <v>45</v>
       </c>
       <c r="G67" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H67" t="s">
         <v>263</v>
@@ -6141,7 +6137,7 @@
         <v>280</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D68" t="s">
         <v>43</v>
@@ -6153,7 +6149,7 @@
         <v>45</v>
       </c>
       <c r="G68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H68" t="s">
         <v>266</v>
@@ -6188,7 +6184,7 @@
         <v>280</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D69" t="s">
         <v>43</v>
@@ -6200,7 +6196,7 @@
         <v>45</v>
       </c>
       <c r="G69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H69" t="s">
         <v>268</v>
@@ -6235,7 +6231,7 @@
         <v>280</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D70" t="s">
         <v>43</v>
@@ -6247,7 +6243,7 @@
         <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H70" t="s">
         <v>271</v>
@@ -6282,7 +6278,7 @@
         <v>280</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="D71" t="s">
         <v>43</v>
@@ -6294,7 +6290,7 @@
         <v>45</v>
       </c>
       <c r="G71" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H71" t="s">
         <v>274</v>
@@ -6322,13 +6318,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q71" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Results for Development"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
